--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_RPA\PRIMO\parse_yandex_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABF1D10-2688-483A-87A8-6917D82595A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD51C8-FA84-40E9-A320-728AC33E72AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="-14160" windowWidth="21600" windowHeight="11385" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
+    <workbookView xWindow="3480" yWindow="-13665" windowWidth="21600" windowHeight="11385" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>key</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>1~3</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>4 или пусто</t>
+  </si>
+  <si>
+    <t>Параметр от 4х звезд или любой рейтинг</t>
+  </si>
+  <si>
+    <t>любая цифра</t>
+  </si>
+  <si>
+    <t>кол-во отзывов</t>
   </si>
 </sst>
 </file>
@@ -470,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B026791F-66F5-4567-8A43-AC7B6FF1EEDF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,6 +600,34 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_RPA\PRIMO\parse_yandex_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD51C8-FA84-40E9-A320-728AC33E72AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB854FC-EF40-487D-8AE8-9FCA346E44A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="-13665" windowWidth="21600" windowHeight="11385" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>подешевле, подороже, высокий рейтинг</t>
   </si>
   <si>
-    <t>Время работы от батареии вводить через ~  (Shift+ё)</t>
-  </si>
-  <si>
     <t>amd, intel   какой процессор</t>
   </si>
   <si>
@@ -75,18 +72,6 @@
     <t>описание</t>
   </si>
   <si>
-    <t>сортировка</t>
-  </si>
-  <si>
-    <t>Оперативная память</t>
-  </si>
-  <si>
-    <t>какой процессор</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> обьем жесткого диска</t>
-  </si>
-  <si>
     <t>8, 12, 16    (только эти размеры)</t>
   </si>
   <si>
@@ -105,9 +90,6 @@
     <t>подешевле</t>
   </si>
   <si>
-    <t>intel</t>
-  </si>
-  <si>
     <t>5~10</t>
   </si>
   <si>
@@ -129,7 +111,25 @@
     <t>любая цифра</t>
   </si>
   <si>
-    <t>кол-во отзывов</t>
+    <t>Оперативная память, выбрать можно только одну</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> обьем жесткого диска, выбрать можно только одно значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сортировка </t>
+  </si>
+  <si>
+    <t>какой процессор (выбирает все процессоры указаной марки)</t>
+  </si>
+  <si>
+    <t>Время работы от батареи вводить через ~  (Shift+ё)</t>
+  </si>
+  <si>
+    <t>кол-во отзывов (обьявления меньше, будут пропускаться)</t>
+  </si>
+  <si>
+    <t>amd</t>
   </si>
 </sst>
 </file>
@@ -180,6 +180,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -199,7 +267,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="D3D5DB"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -491,7 +559,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +567,7 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -521,13 +589,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,13 +603,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -549,13 +617,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -563,13 +631,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,10 +648,10 @@
         <v>512</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,41 +659,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_RPA\PRIMO\parse_yandex_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB854FC-EF40-487D-8AE8-9FCA346E44A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED935855-BCA0-4122-950B-42AD695FB216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
+    <workbookView xWindow="3315" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -126,10 +126,10 @@
     <t>Время работы от батареи вводить через ~  (Shift+ё)</t>
   </si>
   <si>
-    <t>кол-во отзывов (обьявления меньше, будут пропускаться)</t>
-  </si>
-  <si>
-    <t>amd</t>
+    <t>кол-во отзывов (обьявлений меньше, будут пропускаться)</t>
+  </si>
+  <si>
+    <t>intel</t>
   </si>
 </sst>
 </file>
@@ -180,74 +180,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -267,7 +199,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D3D5DB"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -559,7 +491,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -687,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_RPA\PRIMO\parse_yandex_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED935855-BCA0-4122-950B-42AD695FB216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D65446-92C2-4DAF-8DBE-9A89CB21D33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
+    <workbookView xWindow="3225" yWindow="-14520" windowWidth="21600" windowHeight="11385" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>key</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>intel</t>
+  </si>
+  <si>
+    <t>Кол-во обьявлений</t>
+  </si>
+  <si>
+    <t>По условию 10</t>
+  </si>
+  <si>
+    <t>count_elm</t>
+  </si>
+  <si>
+    <t>rating2</t>
+  </si>
+  <si>
+    <t>3, 4.2, 4.7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Этот рейтинг можно настраивать, но тогда нужно оставить rating пустым. Важно если ставить rating пустым то появится много обьявлений без отзывов, из зарубежа и тд. </t>
   </si>
 </sst>
 </file>
@@ -166,12 +184,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B026791F-66F5-4567-8A43-AC7B6FF1EEDF}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +520,7 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,6 +649,34 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_RPA\PRIMO\parse_yandex_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D65446-92C2-4DAF-8DBE-9A89CB21D33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4832E1C3-63DE-4D78-8F7F-80C42E9B698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="-14520" windowWidth="21600" windowHeight="11385" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
+    <workbookView xWindow="4920" yWindow="-12735" windowWidth="21600" windowHeight="11385" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -96,18 +96,12 @@
     <t>1~3</t>
   </si>
   <si>
-    <t>rating</t>
-  </si>
-  <si>
     <t>reviews</t>
   </si>
   <si>
     <t>4 или пусто</t>
   </si>
   <si>
-    <t>Параметр от 4х звезд или любой рейтинг</t>
-  </si>
-  <si>
     <t>любая цифра</t>
   </si>
   <si>
@@ -141,13 +135,19 @@
     <t>count_elm</t>
   </si>
   <si>
-    <t>rating2</t>
-  </si>
-  <si>
     <t>3, 4.2, 4.7,</t>
   </si>
   <si>
     <t xml:space="preserve">Этот рейтинг можно настраивать, но тогда нужно оставить rating пустым. Важно если ставить rating пустым то появится много обьявлений без отзывов, из зарубежа и тд. </t>
+  </si>
+  <si>
+    <t>Параметр от 4х звезд или любой рейтинг/ Если его убрать то очень много без рейтинга</t>
+  </si>
+  <si>
+    <t>four_rating</t>
+  </si>
+  <si>
+    <t>any_rating</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,13 +570,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,13 +598,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,58 +623,58 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_RPA\PRIMO\parse_yandex_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4832E1C3-63DE-4D78-8F7F-80C42E9B698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE20292-C17B-4843-AD9A-0C477FD4BB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="-12735" windowWidth="21600" windowHeight="11385" xr2:uid="{D9B0E246-8A8A-4F4F-B6F9-4BECAC97FE86}"/>
   </bookViews>
@@ -123,31 +123,31 @@
     <t>кол-во отзывов (обьявлений меньше, будут пропускаться)</t>
   </si>
   <si>
+    <t>Кол-во обьявлений</t>
+  </si>
+  <si>
+    <t>По условию 10</t>
+  </si>
+  <si>
+    <t>count_elm</t>
+  </si>
+  <si>
+    <t>3, 4.2, 4.7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Этот рейтинг можно настраивать, но тогда нужно оставить rating пустым. Важно если ставить rating пустым то появится много обьявлений без отзывов, из зарубежа и тд. </t>
+  </si>
+  <si>
+    <t>Параметр от 4х звезд или любой рейтинг/ Если его убрать то очень много без рейтинга</t>
+  </si>
+  <si>
+    <t>four_rating</t>
+  </si>
+  <si>
+    <t>any_rating</t>
+  </si>
+  <si>
     <t>intel</t>
-  </si>
-  <si>
-    <t>Кол-во обьявлений</t>
-  </si>
-  <si>
-    <t>По условию 10</t>
-  </si>
-  <si>
-    <t>count_elm</t>
-  </si>
-  <si>
-    <t>3, 4.2, 4.7,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Этот рейтинг можно настраивать, но тогда нужно оставить rating пустым. Важно если ставить rating пустым то появится много обьявлений без отзывов, из зарубежа и тд. </t>
-  </si>
-  <si>
-    <t>Параметр от 4х звезд или любой рейтинг/ Если его убрать то очень много без рейтинга</t>
-  </si>
-  <si>
-    <t>four_rating</t>
-  </si>
-  <si>
-    <t>any_rating</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -632,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,30 +651,30 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
